--- a/biology/Médecine/Paul_Bailliart/Paul_Bailliart.xlsx
+++ b/biology/Médecine/Paul_Bailliart/Paul_Bailliart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Bailliart est un ophtalmologiste français (1877-1969)
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Poitiers le 9 novembre 1877, Paul Alfred Marie Bailliart fait ses études au lycée de Besançon, puis entre dans l'armée à l’École du Service de Santé de Lyon afin de faire ses études de médecine.
 Sa thèse, soutenue en 1900, s'intitule Traitement chirurgical de la myopie, en particulier par la suppression du cristallin.
-Venu à Paris en 1907 pour travailler avec Victor Morax, il est admis  en 1909 à la Société française d'ophtalmologie de Paris, dont il fut longtemps secrétaire général. Médecin militaire pendant la première guerre mondiale[1], il entre en 1929 à l'hôpital des Quinze-Vingts, où il devient chef de service. Il fut également président de la Ligue internationale de prophylaxie de la cécité.
-Ses travaux sur la circulation rétinienne[2], ou ses manuels[3], et la mise au point de la méthode ophtalmodynamométrique et d'instruments de mesure (peson, "ophtalmodynamomètre de Bailliart", gonomètre ou tonomètre[4]) firent autorité et suscitèrent dans le monde de nombreux travaux. Il publia également des travaux concernant les aveugles[5].
+Venu à Paris en 1907 pour travailler avec Victor Morax, il est admis  en 1909 à la Société française d'ophtalmologie de Paris, dont il fut longtemps secrétaire général. Médecin militaire pendant la première guerre mondiale, il entre en 1929 à l'hôpital des Quinze-Vingts, où il devient chef de service. Il fut également président de la Ligue internationale de prophylaxie de la cécité.
+Ses travaux sur la circulation rétinienne, ou ses manuels, et la mise au point de la méthode ophtalmodynamométrique et d'instruments de mesure (peson, "ophtalmodynamomètre de Bailliart", gonomètre ou tonomètre) firent autorité et suscitèrent dans le monde de nombreux travaux. Il publia également des travaux concernant les aveugles.
 Lauréat de la Médaille Gonin (1945), officier de la Légion d'honneur, titulaire des Palmes académiques, il fut médecin et enseignant.
-Maire de Massy de 1926 à 1935, il est l'auteur d'une monographie sur l'histoire de cette commune de Seine-et-Oise[6], où il avait acquis et baptisé "Chambertrand" une maison ayant appartenu à l'historien Fustel de Coulanges, qui abrite maintenant un centre de la CIMADE. 
-C'est dans cette maison et sous son égide que fut créé, dans les années soixante, le Centre Culturel de Massy (CCM), dont sa petite-fille Charlette Trotot et son époux, Raymond Rodriguez, furent à l'origine. Le Centre culturel Paul Bailliart[7], construit en 1969 et actuellement connu sous le nom de "Paul B." est l'héritier direct de cette association.
+Maire de Massy de 1926 à 1935, il est l'auteur d'une monographie sur l'histoire de cette commune de Seine-et-Oise, où il avait acquis et baptisé "Chambertrand" une maison ayant appartenu à l'historien Fustel de Coulanges, qui abrite maintenant un centre de la CIMADE. 
+C'est dans cette maison et sous son égide que fut créé, dans les années soixante, le Centre Culturel de Massy (CCM), dont sa petite-fille Charlette Trotot et son époux, Raymond Rodriguez, furent à l'origine. Le Centre culturel Paul Bailliart, construit en 1969 et actuellement connu sous le nom de "Paul B." est l'héritier direct de cette association.
 Mort le 29 octobre 1969, Paul Bailliart est enterré à Massy, dans le cimetière des Sablons.
 </t>
         </is>
@@ -549,13 +563,15 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Paul Bailliart,  Histoires de famille, Paris, Badiane, 1990.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Bailliart,  Histoires de famille, Paris, Badiane, 1990.
 Paul Bailliart,  Histoire de Massy, Paris, Le livre d'histoire, 2003.
 Louis Guillaumat, Jean-Pierre Bailliart,  Les Quinze-vingts de Paris : échos historiques du XIIIe au XXe siècle, Paris, Société francophone d'histoire de l'ophtalmologie, 1998.
 (en) « Notice biographique », sur Who Named It?
-British Journal of Ophthalmology, 1970;54:72 [1]</t>
+British Journal of Ophthalmology, 1970;54:72 </t>
         </is>
       </c>
     </row>
